--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>Money</t>
+  </si>
+  <si>
+    <t>ConsumeData_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,12 +446,12 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
@@ -499,8 +503,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +47,10 @@
   </si>
   <si>
     <t>Money</t>
+  </si>
+  <si>
+    <t>ConsumeData_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -97,8 +104,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -442,12 +477,12 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
@@ -499,8 +534,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="16485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,39 +12,74 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ConsumeData_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VIPEXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_VIPEXP_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_EXP_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_HP_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_MP_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Money</t>
-  </si>
-  <si>
-    <t>ConsumeData_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,20 +101,37 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -93,11 +140,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,321 +527,475 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="32.75" customWidth="1"/>
-    <col min="13" max="14" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="32.77734375" customWidth="1"/>
+    <col min="13" max="14" width="20.21875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="16" max="17" width="21.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.25" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="27" width="17.75" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" customWidth="1"/>
+    <col min="23" max="23" width="20.21875" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="20.21875" customWidth="1"/>
+    <col min="26" max="27" width="17.77734375" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="D61" s="1"/>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,19 +80,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10002</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10003</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10004</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10005</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10006</t>
+  </si>
+  <si>
     <t>AwardProperty_Gold_10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AwardProperty_Money_10002</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10003</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10004</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10005</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10006</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10002</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10003</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10004</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10005</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -96,6 +146,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -140,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +205,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,40 +584,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="32.77734375" customWidth="1"/>
-    <col min="13" max="14" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="27.75" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="32.75" customWidth="1"/>
+    <col min="13" max="14" width="20.25" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.44140625" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" customWidth="1"/>
+    <col min="16" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.5" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" customWidth="1"/>
-    <col min="23" max="23" width="20.21875" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="20.21875" customWidth="1"/>
-    <col min="26" max="27" width="17.77734375" customWidth="1"/>
+    <col min="22" max="22" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="20.25" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="20.25" customWidth="1"/>
+    <col min="26" max="27" width="17.75" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -609,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -635,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -687,317 +747,599 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1300</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1700</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2100</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>900</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1300</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1700</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2100</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="D61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -134,17 +134,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,54 +164,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,31 +217,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,43 +312,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,133 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,11 +601,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,21 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,15 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -690,6 +681,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -703,148 +703,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -940,7 +940,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1293,13 +1293,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.1083333333333" customWidth="1"/>
     <col min="2" max="3" width="9.33333333333333" customWidth="1"/>
@@ -1307,23 +1307,6 @@
     <col min="5" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="16.4416666666667" customWidth="1"/>
     <col min="8" max="8" width="20.2166666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="27.775" customWidth="1"/>
-    <col min="11" max="11" width="17.775" customWidth="1"/>
-    <col min="12" max="12" width="32.775" customWidth="1"/>
-    <col min="13" max="14" width="20.2166666666667" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.4416666666667" customWidth="1"/>
-    <col min="18" max="18" width="15.2166666666667" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.4416666666667" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.2166666666667" customWidth="1"/>
-    <col min="23" max="23" width="20.2166666666667" customWidth="1"/>
-    <col min="24" max="24" width="11.6666666666667" customWidth="1"/>
-    <col min="25" max="25" width="20.2166666666667" customWidth="1"/>
-    <col min="26" max="27" width="17.775" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1352,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1377,9 +1360,8 @@
       <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+    <row r="3" s="2" customFormat="1" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1404,9 +1386,8 @@
       <c r="H3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+    <row r="4" s="2" customFormat="1" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1431,9 +1412,8 @@
       <c r="H4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+    <row r="5" s="2" customFormat="1" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1458,9 +1438,8 @@
       <c r="H5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+    <row r="6" s="2" customFormat="1" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1485,9 +1464,8 @@
       <c r="H6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="68.25" spans="1:9">
+    <row r="7" s="3" customFormat="1" ht="68.25" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +1490,6 @@
       <c r="H7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
@@ -1721,214 +1698,6 @@
       <c r="H15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="10"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="10"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="10"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="10"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="10"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="10"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="10"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="10"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="10"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="10"/>
-      <c r="D67" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,15 +172,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,60 +210,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,13 +221,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,9 +240,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,16 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -322,6 +307,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -356,49 +357,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,145 +541,103 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,32 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,15 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,8 +714,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,171 +754,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -836,10 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,8 +1009,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -907,10 +1018,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1258,7 +1366,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1289,782 +1397,782 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="b">
+      <c r="B3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="b">
+      <c r="E3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="b">
+      <c r="F3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="b">
+      <c r="G3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="b">
+      <c r="H3" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="b">
+      <c r="B4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="E4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="b">
+      <c r="F4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="b">
+      <c r="G4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="b">
+      <c r="B5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="b">
+      <c r="D5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="b">
+      <c r="E5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="b">
+      <c r="F5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="b">
+      <c r="G5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="16">
         <v>100</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
         <v>100</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
         <v>100</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
         <v>100</v>
       </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
         <v>100</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
         <v>500</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
         <v>900</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
         <v>1300</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
         <v>1700</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
         <v>2100</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
         <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
         <v>1300</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
         <v>1700</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
         <v>2100</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
         <v>100</v>
       </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
         <v>500</v>
       </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
         <v>900</v>
       </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
         <v>1300</v>
       </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
         <v>1700</v>
       </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
         <v>2100</v>
       </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
         <v>0</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -159,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -180,9 +183,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,61 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,14 +221,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -302,6 +258,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,10 +325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -357,37 +360,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +474,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,43 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,86 +544,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -590,6 +593,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -623,6 +639,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -656,7 +685,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,15 +710,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,8 +743,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,148 +783,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,10 +938,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,7 +953,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,19 +962,16 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -951,7 +980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1038,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1018,7 +1047,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1363,10 +1391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1397,219 +1425,219 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="b">
+      <c r="B3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="b">
+      <c r="C3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="b">
+      <c r="D3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="b">
+      <c r="E3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="b">
+      <c r="F3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="b">
+      <c r="G3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="10" t="b">
+      <c r="H3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="b">
+      <c r="B4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="b">
+      <c r="C4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="b">
+      <c r="D4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="b">
+      <c r="E4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="b">
+      <c r="F4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="b">
+      <c r="G4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="b">
+      <c r="H4" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="b">
+      <c r="B5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="b">
+      <c r="C5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="b">
+      <c r="D5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="b">
+      <c r="E5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="b">
+      <c r="F5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="b">
+      <c r="G5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="b">
+      <c r="H5" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:8">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
@@ -1635,10 +1663,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
@@ -1664,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1693,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -1725,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16">
         <v>0</v>
@@ -1754,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -1780,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="H15" s="16">
         <v>0</v>
@@ -1806,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="H16" s="16">
         <v>0</v>
@@ -1832,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="16">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="H17" s="16">
         <v>0</v>
@@ -1858,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="16">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
@@ -1884,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="16">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H19" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1913,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="16">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1939,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="16">
-        <v>900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1965,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="16">
-        <v>1300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1991,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="16">
-        <v>1700</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2017,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="16">
-        <v>2100</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2034,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F25" s="16">
         <v>0</v>
@@ -2043,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="16">
-        <v>0</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2060,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="16">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F26" s="16">
         <v>0</v>
@@ -2086,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="16">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F27" s="16">
         <v>0</v>
@@ -2112,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="16">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F28" s="16">
         <v>0</v>
@@ -2138,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="16">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="F29" s="16">
         <v>0</v>
@@ -2164,19 +2192,51 @@
         <v>0</v>
       </c>
       <c r="E30" s="16">
+        <v>1700</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
         <v>2100</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,20 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -160,14 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -181,159 +188,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,198 +210,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -673,258 +343,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,61 +412,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1052,12 +432,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1389,42 +774,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="32.75" customWidth="1"/>
-    <col min="13" max="14" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.1640625" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
     <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="16.5" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.25" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="27" width="17.75" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="20.1640625" customWidth="1"/>
+    <col min="26" max="27" width="17.6640625" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1580,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1606,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1632,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
@@ -1658,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -1710,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
@@ -1736,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
@@ -1762,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -1814,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
@@ -1840,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
@@ -1866,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
@@ -1892,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>33</v>
       </c>
@@ -1918,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +1329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>35</v>
       </c>
@@ -1970,7 +1355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
@@ -1996,7 +1381,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
@@ -2022,7 +1407,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +1433,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
         <v>39</v>
       </c>
@@ -2074,7 +1459,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
@@ -2100,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
@@ -2126,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
@@ -2152,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
         <v>43</v>
       </c>
@@ -2178,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
         <v>44</v>
       </c>
@@ -2204,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
         <v>45</v>
       </c>
@@ -2237,7 +1622,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -168,13 +168,17 @@
   </si>
   <si>
     <t>AwardProperty_SP_10006</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -185,6 +189,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -413,7 +422,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -441,6 +450,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -775,41 +787,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="27.6328125" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="32.6328125" customWidth="1"/>
+    <col min="13" max="14" width="20.1796875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="16" max="17" width="21.453125" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="16.453125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="20.1640625" customWidth="1"/>
-    <col min="26" max="27" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" customWidth="1"/>
+    <col min="23" max="23" width="20.1796875" customWidth="1"/>
+    <col min="24" max="24" width="11.6328125" customWidth="1"/>
+    <col min="25" max="25" width="20.1796875" customWidth="1"/>
+    <col min="26" max="27" width="17.6328125" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -835,7 +847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -861,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -887,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -913,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -939,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -965,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -991,634 +1003,661 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B11" s="16">
         <v>100</v>
       </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="16">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
         <v>100</v>
       </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="16">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
         <v>100</v>
       </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
         <v>100</v>
       </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="16">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
         <v>100</v>
       </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
         <v>500</v>
       </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
         <v>900</v>
       </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
         <v>1300</v>
       </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
         <v>1700</v>
       </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="16">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
         <v>2100</v>
       </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="16">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
         <v>2100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
         <v>100</v>
       </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="16">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
         <v>500</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
         <v>900</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="16">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
         <v>1300</v>
       </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="16">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
         <v>1700</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="16">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
         <v>2100</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
